--- a/biology/Microbiologie/Aspidiscidae/Aspidiscidae.xlsx
+++ b/biology/Microbiologie/Aspidiscidae/Aspidiscidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aspidiscidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Euplotida.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Aspidisca, dérivé du grec ἀσπίς / aspis, bouclier, et, peut-être, de δισκοσ / diskos, disque, littéralement « disque bouclier », en référence à l'aspect « encuirassé, orbiculaire ou en forme de bouclier »[1] de l'organisme.
-Joshua Grosse y voit plutôt la combinaison de aspid(o)-, bouclier, et du diminutif -iskē[2]. En effet, cet auteur, étudiant les noms vernaculaires dans les langues allemande et danoise[3], a noté que Ehrenberg nomme Aspidisca du simple nom « Schildthierchen », littéralement « animal bouclier » ; l'apparent suffixe discos étant une coïncidence sans valeur sémantique (la lettre "d" appartenant au préfixe aspid- plutôt qu'au suffixe -isca).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Aspidisca, dérivé du grec ἀσπίς / aspis, bouclier, et, peut-être, de δισκοσ / diskos, disque, littéralement « disque bouclier », en référence à l'aspect « encuirassé, orbiculaire ou en forme de bouclier » de l'organisme.
+Joshua Grosse y voit plutôt la combinaison de aspid(o)-, bouclier, et du diminutif -iskē. En effet, cet auteur, étudiant les noms vernaculaires dans les langues allemande et danoise, a noté que Ehrenberg nomme Aspidisca du simple nom « Schildthierchen », littéralement « animal bouclier » ; l'apparent suffixe discos étant une coïncidence sans valeur sémantique (la lettre "d" appartenant au préfixe aspid- plutôt qu'au suffixe -isca).
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Saville Kent décrit ainsi le genre type Aspidisca : 
-« Animalcules nageant librement, encuirassés, orbiculaires ou en forme de bouclier, à surface dorsale convexe et ventrale plane, le bord droit de la surface ventrale ayant une marge épaissie ; champ de péristome placé très en arrière sur le côté gauche, associé à une simple frange arquée de cirres adoraux, qui ne dépassent pas le bord antérieur ou latéral gauche ; plusieurs grands styles en forme de griffes se développent généralement vers l'extrémité antérieure et au centre de la région ventrale, et de cinq à dix ou douze styles postérieurs ou anaux ; ouverture anale placée très en arrière, débouchant un peu en avant des styles postérieurs ou anaux[1]. »
-En particulier l'espèce Aspidisca polystyla, Stein, est décrite ainsi « Carapace ovale, sa marge entière, la bordure latérale gauche presque droite ; la face dorsale légèrement convexe, traversée par trois sillons longitudinaux ; styles ventraux au nombre de sept, formant deux rangées antérieures, obliques, parallèles de trois chacune, le septième style stationné seul à droite et en arrière des six autres ; styles anaux au nombre de dix à douze. Longueur 1-510" (soit environ 55 μm). »[1].
+« Animalcules nageant librement, encuirassés, orbiculaires ou en forme de bouclier, à surface dorsale convexe et ventrale plane, le bord droit de la surface ventrale ayant une marge épaissie ; champ de péristome placé très en arrière sur le côté gauche, associé à une simple frange arquée de cirres adoraux, qui ne dépassent pas le bord antérieur ou latéral gauche ; plusieurs grands styles en forme de griffes se développent généralement vers l'extrémité antérieure et au centre de la région ventrale, et de cinq à dix ou douze styles postérieurs ou anaux ; ouverture anale placée très en arrière, débouchant un peu en avant des styles postérieurs ou anaux. »
+En particulier l'espèce Aspidisca polystyla, Stein, est décrite ainsi « Carapace ovale, sa marge entière, la bordure latérale gauche presque droite ; la face dorsale légèrement convexe, traversée par trois sillons longitudinaux ; styles ventraux au nombre de sept, formant deux rangées antérieures, obliques, parallèles de trois chacune, le septième style stationné seul à droite et en arrière des six autres ; styles anaux au nombre de dix à douze. Longueur 1-510" (soit environ 55 μm). ».
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidisca est un « Habitant principalement de l'eau salée »[1].
-La famille des Aspidiscidae a une répartition mondiale[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidisca est un « Habitant principalement de l'eau salée ».
+La famille des Aspidiscidae a une répartition mondiale.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 février 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 février 2023) :
 Aspidicopsis Ghosh, 1921
 Aspidisca Ehrenberg, 1830  genre type
 Coccudina Dujardin, 1841
@@ -644,9 +664,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Aspidiscidae Ehrenberg, 1830[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Aspidiscidae Ehrenberg, 1830.
 </t>
         </is>
       </c>
